--- a/calculo_media.xlsx
+++ b/calculo_media.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57300\Documents\GitHub\Trabajo-Final-Bayesiana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Trabajo-Final-Bayesiana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3141813-18EC-449A-A570-CBC14F7C1BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Precio</t>
   </si>
@@ -50,11 +49,29 @@
   <si>
     <t>Media 2016</t>
   </si>
+  <si>
+    <t>var 2012</t>
+  </si>
+  <si>
+    <t>var 2016</t>
+  </si>
+  <si>
+    <t>2012 por (precio - media_2012)^2</t>
+  </si>
+  <si>
+    <t>2016 por (precio - media_2016)^2</t>
+  </si>
+  <si>
+    <t>sd 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd 2016  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,21 +382,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,14 +407,20 @@
       <c r="C1">
         <v>2016</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -406,16 +430,24 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <f>B2*(A2-$K$4)^2</f>
+        <v>0</v>
+      </c>
       <c r="E2">
+        <f>C2*(A2-$K$5)^2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
         <f>A2*B2</f>
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>A2*C2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -425,16 +457,24 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D32" si="0">B3*(A3-$K$4)^2</f>
+        <v>8774.653031409789</v>
+      </c>
       <c r="E3">
-        <f t="shared" ref="E3:E32" si="0">A3*B3</f>
+        <f t="shared" ref="E3:E32" si="1">C3*(A3-$K$5)^2</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F32" si="2">A3*B3</f>
         <v>25</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F32" si="1">A3*C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <f t="shared" ref="G3:G32" si="3">A3*C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -444,23 +484,31 @@
       <c r="C4">
         <v>5</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>6805.058436815194</v>
+      </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>15847.516864564577</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
+      <c r="G4">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>3</v>
       </c>
-      <c r="J4">
-        <f>E33/B33</f>
+      <c r="K4">
+        <f>F33/B33</f>
         <v>46.891891891891895</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -470,23 +518,31 @@
       <c r="C5">
         <v>5</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>15256.391526661801</v>
+      </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>13157.599737492754</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
+      <c r="G5">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>4</v>
       </c>
-      <c r="J5">
-        <f>F33/C33</f>
+      <c r="K5">
+        <f>G33/C33</f>
         <v>66.298342541436469</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -496,16 +552,31 @@
       <c r="C6">
         <v>15</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>14463.476990504021</v>
+      </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>32153.047831262789</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
+      <c r="G6">
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f>D33/B33</f>
+        <v>370.06939371804236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -515,16 +586,31 @@
       <c r="C7">
         <v>20</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>23962.746530314103</v>
+      </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>34111.06193339642</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
+      <c r="G7">
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f>E33/C33</f>
+        <v>520.55187570586986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -534,16 +620,31 @@
       <c r="C8">
         <v>20</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>21400.200876552233</v>
+      </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>26351.39342510913</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
         <v>2250</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
+      <c r="G8">
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <f>SQRT(K6)</f>
+        <v>19.237187780911281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
@@ -553,16 +654,31 @@
       <c r="C9">
         <v>20</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>13434.623813002197</v>
+      </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>19591.724916821837</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
         <v>3325</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
+      <c r="G9">
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <f>SQRT(K7)</f>
+        <v>22.815605968412715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -572,16 +688,24 @@
       <c r="C10">
         <v>35</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>4274.8356464572717</v>
+      </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>24206.098714935451</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
         <v>3600</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
+      <c r="G10">
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45</v>
       </c>
@@ -591,16 +715,24 @@
       <c r="C11">
         <v>50</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>268.44411979547198</v>
+      </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>22680.969750618126</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
         <v>3375</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
+      <c r="G11">
+        <f t="shared" si="3"/>
         <v>2250</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -610,16 +742,24 @@
       <c r="C12">
         <v>60</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>579.62016070124071</v>
+      </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>15938.158175879866</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
+      <c r="G12">
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>55</v>
       </c>
@@ -629,16 +769,24 @@
       <c r="C13">
         <v>90</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3944.485025566104</v>
+      </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>11488.728976526978</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
         <v>3300</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
+      <c r="G13">
+        <f t="shared" si="3"/>
         <v>4950</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>60</v>
       </c>
@@ -648,16 +796,24 @@
       <c r="C14">
         <v>95</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>8591.1249086924727</v>
+      </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>3768.5662830804981</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
+      <c r="G14">
+        <f t="shared" si="3"/>
         <v>5700</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>65</v>
       </c>
@@ -667,16 +823,24 @@
       <c r="C15">
         <v>90</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>11476.625273922567</v>
+      </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>151.71240194133381</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
         <v>2275</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
+      <c r="G15">
+        <f t="shared" si="3"/>
         <v>5850</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>70</v>
       </c>
@@ -686,16 +850,24 @@
       <c r="C16">
         <v>75</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>10679.693206720231</v>
+      </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>1027.6700955404265</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
+      <c r="G16">
+        <f t="shared" si="3"/>
         <v>5250</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>75</v>
       </c>
@@ -705,16 +877,24 @@
       <c r="C17">
         <v>60</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>15801.314828341852</v>
+      </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>4543.1305515704598</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
+      <c r="G17">
+        <f t="shared" si="3"/>
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>80</v>
       </c>
@@ -724,16 +904,24 @@
       <c r="C18">
         <v>60</v>
       </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>21922.936449963472</v>
+      </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>C18*(A18-$K$5)^2</f>
+        <v>11264.12502670858</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
+      <c r="G18">
+        <f t="shared" si="3"/>
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>85</v>
       </c>
@@ -743,16 +931,24 @@
       <c r="C19">
         <v>50</v>
       </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>21783.418553688818</v>
+      </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>17487.599584872249</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
         <v>1275</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
+      <c r="G19">
+        <f t="shared" si="3"/>
         <v>4250</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>90</v>
       </c>
@@ -762,16 +958,24 @@
       <c r="C20">
         <v>35</v>
       </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>27874.634769905035</v>
+      </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>19661.899819907812</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
+      <c r="G20">
+        <f t="shared" si="3"/>
         <v>3150</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>95</v>
       </c>
@@ -781,16 +985,24 @@
       <c r="C21">
         <v>35</v>
       </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>11571.950328707084</v>
+      </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>28832.479930405043</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
+      <c r="G21">
+        <f t="shared" si="3"/>
         <v>3325</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>100</v>
       </c>
@@ -800,16 +1012,24 @@
       <c r="C22">
         <v>20</v>
       </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>14102.355734112489</v>
+      </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>22716.034309087016</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
+      <c r="G22">
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>105</v>
       </c>
@@ -819,16 +1039,24 @@
       <c r="C23">
         <v>20</v>
       </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>16882.761139517894</v>
+      </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>29956.365800799722</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
         <v>525</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
+      <c r="G23">
+        <f t="shared" si="3"/>
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>110</v>
       </c>
@@ -838,16 +1066,24 @@
       <c r="C24">
         <v>15</v>
       </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>28647.522969384325</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
         <v>1650</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>115</v>
       </c>
@@ -857,16 +1093,24 @@
       <c r="C25">
         <v>15</v>
       </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>35577.771588168856</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
         <v>1725</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>120</v>
       </c>
@@ -876,16 +1120,24 @@
       <c r="C26">
         <v>5</v>
       </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>14419.34006898446</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>125</v>
       </c>
@@ -895,16 +1147,24 @@
       <c r="C27">
         <v>5</v>
       </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>17229.422941912639</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
         <v>625</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>130</v>
       </c>
@@ -914,16 +1174,24 @@
       <c r="C28">
         <v>5</v>
       </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>20289.505814840813</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
         <v>650</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>135</v>
       </c>
@@ -933,16 +1201,24 @@
       <c r="C29">
         <v>0</v>
       </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>140</v>
       </c>
@@ -952,16 +1228,24 @@
       <c r="C30">
         <v>0</v>
       </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>145</v>
       </c>
@@ -971,16 +1255,24 @@
       <c r="C31">
         <v>0</v>
       </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>150</v>
       </c>
@@ -990,16 +1282,24 @@
       <c r="C32">
         <v>0</v>
       </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>SUM(B2:B32)</f>
         <v>740</v>
@@ -1008,12 +1308,20 @@
         <f>SUM(C2:C32)</f>
         <v>905</v>
       </c>
+      <c r="D33">
+        <f>SUM(D2:D32)</f>
+        <v>273851.35135135136</v>
+      </c>
       <c r="E33">
         <f>SUM(E2:E32)</f>
-        <v>34700</v>
+        <v>471099.44751381222</v>
       </c>
       <c r="F33">
         <f>SUM(F2:F32)</f>
+        <v>34700</v>
+      </c>
+      <c r="G33">
+        <f>SUM(G2:G32)</f>
         <v>60000</v>
       </c>
     </row>
